--- a/clients_1.xlsx
+++ b/clients_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,252 +448,1872 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zaid Ahmed Ali El Otoom</t>
+          <t>Mahmoud Ahmed Ashraf Ahmed El Ghamri</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>962795528074</t>
+          <t>201006666605</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hany Omar Mohamed Eldalkamony</t>
+          <t>Mohamed mahmoud abo samra</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>962777650820</t>
+          <t>201111115537</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Maged Milad Beshara Youssef</t>
+          <t>Peninsula  Construction</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19496832093</t>
+          <t>201121877665</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ecobat Industrial Development</t>
+          <t>Tarek Reyad Al Arian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>966500813334</t>
+          <t>201118228235</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ahmed Abd El Moneium Ismaeil El Kasas</t>
+          <t>Diaa Eldin Ibrahim Mohamed El Hefny</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>966501904092</t>
+          <t>201223178217</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Khadija Yehia Anwar Tawfik Bayad</t>
+          <t>Hend abo el fotouh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>966544206017</t>
+          <t>201002161616</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>El Sayed Abd El Rahman El Sayed Badr</t>
+          <t>Abd El Rahman Mohamed Mahmoud El Gamal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>966553909103</t>
+          <t>201009330986</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wael saeed  Mahmoud ali khalifa</t>
+          <t>Mohamed Sayed Sonousy Ahmed Soliman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>96597219593</t>
+          <t>201288889487</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mahmoud Adel Mahmoud Abdel El Salam</t>
+          <t>Noura Fadel Aeed Soliman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>971582609367</t>
+          <t>201202090258</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nadia Sayed Ahmed Hamza</t>
+          <t>Ahmed Abdullah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>96594067401</t>
+          <t>201210751846</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mohamed abdel badeea mohamed azam</t>
+          <t>Nabil mohamed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>971566035432</t>
+          <t>201097400800</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dina Nabih Gerges Younan</t>
+          <t>Hossam El Din Mohamed Abo El Esaad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>96599376237</t>
+          <t>201003003700</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mohamed abbas badr</t>
+          <t>Zaid Ahmed Ali El Otoom</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>200101901955</t>
+          <t>962795528074</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ragab Mostafa Khalifa Tolba</t>
+          <t>Hany Omar Mohamed Eldalkamony</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>966555862684</t>
+          <t>962777650820</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hossam Mostafa Mohamed</t>
+          <t>Ezz El-Derini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>200112387835</t>
+          <t>201001635144</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AHMED ABOU MOSALM</t>
+          <t>Mohamed mahmoud ahmed elsheikh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>966533883456</t>
+          <t>201000009772</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mohamed Aly Abu El Yazid Altras</t>
+          <t>Maged Milad Beshara Youssef</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>966550948950</t>
+          <t>19496832093</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Metawe Mohamed Shehata Hussein</t>
+          <t>Kamel Abdel Hamid El Sawy Ahmed</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>966562154937</t>
+          <t>201066634357</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Waleed Gamal El Deen Abo El seyoufi</t>
+          <t>Mohamed Abd El Salam Mohamed El Nweihy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>96594062666</t>
+          <t>201006605770</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nidal bin Zain bin Hussein</t>
+          <t>Mohamed Hassan Mohamed Hassan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>966545454593</t>
+          <t>201006609293</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Islam Mohamed Abdel-Samie</t>
+          <t>Mohamed Hassan Abd El Qader Ibrahem</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>971502711444</t>
+          <t>201222162190</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tarek Roshdy</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>201006667848</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ecobat Industrial Development</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>966500813334</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mahmoud hassan mohamed</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>201000164154</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Wael Tarek Mohamed Mohamed Ismael</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>201222136200</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sahar Fouad Mohamed Mohamed El-Boraay</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>201006552077</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lobna Ahmed Mahmoud Lashin</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>201223482627</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hesham Abdel Hafez Ali Ali</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>201001101166</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Adel Mohamed Assem Mohamed Abd El-Rahman Moha Emam</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>201223521108</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ahmed Abdel-Rehim Sewify Mohamed</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>201001676465</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ali ali mohamed Al-Hefnawy</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>201097771834</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sherif Takla Hinry Takla Youssef</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>201223172880</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sara Abdullah Mahmoud</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>201000141016</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ahmed Abd El Moneium Ismaeil El Kasas</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>966501904092</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Khadija Yehia Anwar Tawfik Bayad</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>966544206017</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>El Sayed Abd El Rahman El Sayed Badr</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>966553909103</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Amira Mohamed Mostafa Aly Mohamed</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>201001285249</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>El-Said Mahmoud abdullah Mahmoud</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>201017425555</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Wael saeed  Mahmoud ali khalifa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>96597219593</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mary Shaker Ishak Tanyous</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>201009100231</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Omar Abou El Fattoh Hussien El Shamly</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>201223100327</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Al-Mohr Abu Ghali Motors Company</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>201222113288</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ahmed mostafa Abdelaziz el hosary</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>201006409941</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mahmoud Mostafa Elhossary</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>201007487755</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ahmed Zidan Ahmed</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>201555539995</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nagy Fathy Nagy</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>201012171860</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ahmed Mohamed Aml</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>201286222180</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ahmed Abo safy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>201003405520</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Eslam Abdelraaouf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>201005396906</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hussien mohei el den</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>201017400099</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Khaled hossam Adin</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>201008856222</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hisham Mohamed Fawzy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>201099222144</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Raghda</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>201277838331</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zeyad</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>201021787815</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ali Khalil Ali El-Zarqa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>201222133359</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tamer Samir Ismail</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>201005705075</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tamer Mohamed Younis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>201101525201</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Enal Wagdy Bishay</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>201223811666</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Zakria Gamal Sayyed</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>201101525204</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Magdy Ibrahim Elhalawany</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>201008447022</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hisham Mahmoud Abdel Ghany Ghoubashy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>201009999806</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tarek Ibrahim Metwaly</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>201112138489</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Islam Mahmoud Shafik</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>201102200143</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ahmed Mohmoud ragheb Mohamed Atia</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>201001774843</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Talaat Abdel Halim Abdel Rahman</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>201092717104</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Wadeea awad</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>201145500039</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mark nashaat mihkail</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>201002686669</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Alaa Saad</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>201004708700</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ayman nady</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>201009558167</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Khaled galal el din Mohamed</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>201007011114</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ibrahim Seliman Mohamed</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>201060025789</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>krsiten shokry</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>201227445129</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>merna gorgy</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>201275297823</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>nady ezzat</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>201272526120</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>yakob shahir</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>201229355048</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>abanob kamal</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>201275297822</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gourge reda</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>201224990290</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ahmed sameh abdel razek oraby</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>201033661183</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Amr Mahmoud Gamal</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>201141920368</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Omar mohammed sheriff</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>201005661540</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hesham Mahmoud Hassan Abdelaziz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>201222167673</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Mohamed Abd-el-monem Abd-el-samea</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>201067875756</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Mohamed Medhat Mohamed</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>201002837237</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Khairy Ahmed Moahmed Assar</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>201004599533</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Osama Mohamed Ibrahim</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>201092211374</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mohamed Wafaa Mohamed</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>201282979762</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mohamed Islam Mahmoud</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>201009643413</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Khaled Fawzy Abdel Fatah Afify Ismail</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>201027821682</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Emad Adly Reyad Ibrahim</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>201002116565</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Tarek mohamed mahmoud</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>201124195500</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Gone safwat helmy</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>201222580658</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sherif Hazem Mohamed Fawzy</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>201001002885</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>hazem Mohamed Fawzy</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>201111496525</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mohamed Naguib Hemida Aly El Gaml</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>201007407555</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hytham Mohamed Naguib</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>201002224466</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>201019196651</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mahmoud Adel Mahmoud Abdel El Salam</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>971582609367</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>201222402404</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Adel Mahmoud Abdel El Salam</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>201023155770</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Eslam mohamed saleh ali</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>201110003716</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Mohamed awad</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>201004389035</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hossam Adel Abdelrahem</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>201090551806</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Essam abd el gelil</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>201141544444</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>hazem abd el dayem</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>201019201479</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nouran ahmed hussien</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>201006124545</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ahmed mohamed nasr Aldin</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>201099993776</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Bahaa El Din Ramadan Mahmoud Mostafa</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>201223198574</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Abdelrahman khairy Mohamed abdelazim</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>201066600483</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mahmoud sayed mohamed</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>201020070616</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Amr Alsyed hassan</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>201025589679</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Amr mohamed Afefy</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>201004545091</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Khaled Atwan Ebrahim</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>201008997209</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ahmed nazih</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>201000988124</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Abdullah taha</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>201065533634</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bassmat Abdel Razek Abdullkah</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>201008847129</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Amal Saleh El Sayed</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>201020745777</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mona Saleh El Sayed</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>201007744423</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ashraf saleh rabea</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>201066667279</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sahar saleh rabea</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>201007271795</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mohamed Wagdy</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>201142225221</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ehab Abdelmonaam</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>201008730102</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalal Abdel Fattah Abdul Qadir</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>201222133148</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>amr abdelafatah</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>201001088933</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mohamed abdelafatah</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>201223255560</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>tarek abdelafatah</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>201001514039</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ahmed Helmy Tawfik Mekled</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>201224921850</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Nadia Sayed Ahmed Hamza</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>96594067401</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Waheed hamza</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>201016606897</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fathy Hassanin Ramdan</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>201223256501</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>mostafa ragab ibrahim</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>201145444412</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Ahmed mansour saed</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>201222402697</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Ressponsible</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>201001050763</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Ahmed Khaled Ibrahim Bassiouny</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>201001412288</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Magdy saleh</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>201003718362</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>amr mahmoud</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>201003077293</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>yasser shwaky</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>201225153310</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mohamed abdel badeea mohamed azam</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>971566035432</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Mohamed Abd elaziz Mohamed</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>201026000323</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Ahmed Mohamed Fayez</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>201011138771</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Abdelrahman Saidawy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>201099197842</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Industries LLC El Marakby Company</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>201222111608</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tamer Mohamad Mohamad Atta</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>201223787386</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ahmad Mohamad AlAbasiry</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>201092033203</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Abo bakr Ahmed</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>201000034734</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>moustafa Ataya mostufa</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>201008897624</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ACT Financial Group</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>201022225529</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Mahmoud rahmy</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>201201588842</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Wael mohamed raslan</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>201116255347</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ahmed alaa fahmy zaki</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>201094422203</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tarek Ibrahim El-Desouki Emam El-Sayed</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>201000010334</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Elham Mostafa Ismail Aly</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>201275105555</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mohamed seoudy ibrahim</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>201223261008</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mahmoud Marzouk Awwad</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>201140496344</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Ahmed Abdel-Raouf Kotb Abo El Eneen</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>201223989747</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Ali Bn Mahmoud Shokat Bn Mohamed Kahala</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>201224224801</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Mahmoud ElSayed Mahmoud Fadl</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>201112288814</t>
         </is>
       </c>
     </row>
